--- a/v1.0.0/StructureDefinition-VRM-UpdateHeader.xlsx
+++ b/v1.0.0/StructureDefinition-VRM-UpdateHeader.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="333">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-28T11:01:10-05:00</t>
+    <t>2023-12-28T12:14:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1006,10 +1006,7 @@
     <t>MessageHeader.focus</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Bundle)
 </t>
   </si>
   <si>
@@ -6002,7 +5999,7 @@
         <v>83</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>320</v>
+        <v>83</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>73</v>
@@ -6014,19 +6011,19 @@
         <v>84</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>73</v>
@@ -6093,7 +6090,7 @@
         <v>73</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>73</v>
@@ -6101,10 +6098,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6127,19 +6124,19 @@
         <v>84</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>73</v>
@@ -6188,7 +6185,7 @@
         <v>73</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>74</v>
@@ -6206,7 +6203,7 @@
         <v>73</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>73</v>
